--- a/xlsx/南瓜_intext.xlsx
+++ b/xlsx/南瓜_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
   <si>
     <t>南瓜</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%93%9C%E5%B1%AC</t>
   </si>
   <si>
-    <t>南瓜屬</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_南瓜</t>
+    <t>南瓜属</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_南瓜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%88%86%E9%A1%9E</t>
   </si>
   <si>
-    <t>科學分類</t>
+    <t>科学分类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E7%95%8C</t>
@@ -47,25 +47,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A2%AB%E5%AD%90%E6%A4%8D%E7%89%A9%E9%96%80</t>
   </si>
   <si>
-    <t>被子植物門</t>
+    <t>被子植物门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%AD%90%E8%91%89%E6%A4%8D%E7%89%A9%E7%B6%B1</t>
   </si>
   <si>
-    <t>雙子葉植物綱</t>
+    <t>双子叶植物纲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%AB%E8%98%86%E7%9B%AE</t>
   </si>
   <si>
-    <t>葫蘆目</t>
+    <t>葫芦目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%AB%E8%98%86%E7%A7%91</t>
   </si>
   <si>
-    <t>葫蘆科</t>
+    <t>葫芦科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E6%9E%97%E5%A5%88</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9%E7%86%B1%E9%87%8F</t>
   </si>
   <si>
-    <t>食物熱量</t>
+    <t>食物热量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%96%E7%B1%BB</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>膳食纖維</t>
+    <t>膳食纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%82%E8%82%AA</t>
@@ -107,37 +107,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%BD%E5%92%8C%E8%84%82%E8%82%AA</t>
   </si>
   <si>
-    <t>飽和脂肪</t>
+    <t>饱和脂肪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E5%85%83%E4%B8%8D%E9%A3%BD%E5%92%8C%E8%84%82%E8%82%AA</t>
   </si>
   <si>
-    <t>單元不飽和脂肪</t>
+    <t>单元不饱和脂肪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E4%B8%8D%E9%A3%BD%E5%92%8C%E8%84%82%E8%82%AA</t>
   </si>
   <si>
-    <t>多元不飽和脂肪</t>
+    <t>多元不饱和脂肪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0</t>
   </si>
   <si>
-    <t>維生素</t>
+    <t>维生素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0A</t>
   </si>
   <si>
-    <t>維生素A</t>
+    <t>维生素A</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%CE%92-%E8%83%A1%E8%90%9D%E5%8D%9C%E7%B4%A0</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B8%E9%B9%BC%E9%85%B8</t>
   </si>
   <si>
-    <t>菸鹼酸</t>
+    <t>菸碱酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%85%B8</t>
@@ -191,61 +191,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0C</t>
   </si>
   <si>
-    <t>維生素C</t>
+    <t>维生素C</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0E</t>
   </si>
   <si>
-    <t>維生素E</t>
+    <t>维生素E</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%A4%A6%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>膳食礦物質</t>
+    <t>膳食矿物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%A3%E7%87%9F%E9%A4%8A</t>
   </si>
   <si>
-    <t>鈣營養</t>
+    <t>钙营养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B3%AA</t>
   </si>
   <si>
-    <t>鐵質</t>
+    <t>铁质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%82</t>
   </si>
   <si>
-    <t>鎂</t>
+    <t>镁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%B7%E7%87%9F%E9%A4%8A</t>
   </si>
   <si>
-    <t>磷營養</t>
+    <t>磷营养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%89%80</t>
   </si>
   <si>
-    <t>鉀</t>
+    <t>钾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%89</t>
   </si>
   <si>
-    <t>鈉</t>
+    <t>钠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%85</t>
   </si>
   <si>
-    <t>鋅</t>
+    <t>锌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%85%8B</t>
@@ -275,15 +275,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%AB%E8%8A%A6%E7%A7%91</t>
   </si>
   <si>
-    <t>葫芦科</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%93%9C%E5%B1%9E</t>
   </si>
   <si>
-    <t>南瓜属</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%8D%97%E7%93%9C</t>
   </si>
   <si>
@@ -311,37 +305,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BD%E5%9F%B9%E7%A8%AE</t>
   </si>
   <si>
-    <t>栽培種</t>
+    <t>栽培种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%A9%B1</t>
   </si>
   <si>
-    <t>閩南話</t>
+    <t>闽南话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%AE%B6%E8%A9%B1</t>
   </si>
   <si>
-    <t>客家話</t>
+    <t>客家话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B7%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>福州話</t>
+    <t>福州话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%B5%AC%E8%A9%B1</t>
   </si>
   <si>
-    <t>大鵬話</t>
+    <t>大鹏话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%8F%AF%E8%A9%B1</t>
   </si>
   <si>
-    <t>金華話</t>
+    <t>金华话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -383,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%80%E7%B7%A3%E6%A4%8D%E7%89%A9</t>
   </si>
   <si>
-    <t>攀緣植物</t>
+    <t>攀缘植物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%89%E6%9C%AC</t>
@@ -395,13 +389,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E%E4%B8%96%E7%95%8C</t>
   </si>
   <si>
-    <t>英語世界</t>
+    <t>英语世界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E8%81%96%E5%A4%9C</t>
   </si>
   <si>
-    <t>萬聖夜</t>
+    <t>万圣夜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AF%E7%AC%BC</t>
@@ -419,25 +413,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BB%96%E5%91%BDA</t>
   </si>
   <si>
-    <t>維他命A</t>
+    <t>维他命A</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B1%E7%B2%89%E8%B3%AA</t>
   </si>
   <si>
-    <t>澱粉質</t>
+    <t>淀粉质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E8%98%BF%E8%94%94%E7%B4%A0</t>
   </si>
   <si>
-    <t>胡蘿蔔素</t>
+    <t>胡萝卜素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E8%8D%89%E7%B6%B1%E7%9B%AE</t>
   </si>
   <si>
-    <t>本草綱目</t>
+    <t>本草纲目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%8C</t>
@@ -449,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E8%A1%80%E5%A3%93</t>
   </si>
   <si>
-    <t>高血壓</t>
+    <t>高血压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%AE%E5%96%98</t>
@@ -485,25 +479,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%8E%E8%87%9F</t>
   </si>
   <si>
-    <t>腎臟</t>
+    <t>肾脏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%AB%E9%AB%AE</t>
   </si>
   <si>
-    <t>脫髮</t>
+    <t>脱发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%89%BB</t>
   </si>
   <si>
-    <t>鉻</t>
+    <t>铬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8E%B3</t>
   </si>
   <si>
-    <t>鎳</t>
+    <t>镍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A4%E7%BB%B4</t>
@@ -521,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%A6%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>礦物質</t>
+    <t>矿物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%92</t>
@@ -539,19 +533,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B1%E7%B2%89</t>
   </si>
   <si>
-    <t>澱粉</t>
+    <t>淀粉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%96%B8</t>
   </si>
   <si>
-    <t>黃疸</t>
+    <t>黄疸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%B3%E6%B0%A3</t>
   </si>
   <si>
-    <t>腳氣</t>
+    <t>脚气</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1528,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
@@ -1563,7 +1557,7 @@
         <v>46</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="s">
         <v>4</v>
@@ -1592,7 +1586,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -1621,7 +1615,7 @@
         <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
@@ -1679,7 +1673,7 @@
         <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -1708,7 +1702,7 @@
         <v>56</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -2140,7 +2134,7 @@
         <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2166,10 +2160,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
         <v>6</v>
@@ -2195,10 +2189,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2224,10 +2218,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2253,10 +2247,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2282,10 +2276,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2311,10 +2305,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2340,10 +2334,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2369,10 +2363,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2398,10 +2392,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2427,10 +2421,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2456,10 +2450,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2485,10 +2479,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2514,10 +2508,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2543,10 +2537,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2572,10 +2566,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2601,10 +2595,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2630,10 +2624,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2659,10 +2653,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2688,10 +2682,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2717,10 +2711,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2746,10 +2740,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2775,10 +2769,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2804,10 +2798,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2833,10 +2827,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -2862,10 +2856,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2891,10 +2885,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -2920,10 +2914,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2949,10 +2943,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2978,10 +2972,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3007,10 +3001,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3036,10 +3030,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3065,10 +3059,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3094,10 +3088,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3123,10 +3117,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3152,10 +3146,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3181,10 +3175,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3210,10 +3204,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3239,10 +3233,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3268,10 +3262,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3297,10 +3291,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3326,10 +3320,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3355,10 +3349,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3384,10 +3378,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3413,10 +3407,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3442,10 +3436,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3471,10 +3465,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
